--- a/개인 작업 폴더/윤도균/[엑셀]_양식_레벨컨셉기획서_v1.01.xlsx
+++ b/개인 작업 폴더/윤도균/[엑셀]_양식_레벨컨셉기획서_v1.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kga_12\Documents\도균\Yaho\개인 작업 폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106CAD8-5C1E-4B80-9351-E5F791D0B99A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F305A5F6-D735-4E32-8C6A-79B833305299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="2580" yWindow="45" windowWidth="19275" windowHeight="15375" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="히스토리" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t xml:space="preserve">Scene3. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,12 +584,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -605,6 +603,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,9 +925,6 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,9 +940,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,9 +952,6 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -960,104 +961,98 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,86 +1105,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3766,7 +3779,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13" style="42" customWidth="1"/>
+    <col min="3" max="3" width="13" style="39" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="70.5" style="1" customWidth="1"/>
@@ -3775,27 +3788,27 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="8"/>
-      <c r="C1" s="40"/>
+      <c r="C1" s="37"/>
       <c r="D1"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="2:7" s="7" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:7" s="4" customFormat="1" ht="42.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -3816,7 +3829,7 @@
         <f>SUBTOTAL(3, E$4:E4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4330,289 +4343,289 @@
     <row r="131" spans="2:13" ht="37.15" customHeight="1"/>
     <row r="132" spans="2:13" ht="37.15" customHeight="1" thickBot="1"/>
     <row r="133" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B133" s="103" t="s">
+      <c r="B133" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C133" s="103" t="s">
+      <c r="C133" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="103" t="s">
+      <c r="D133" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="103"/>
-      <c r="F133" s="103"/>
-      <c r="G133" s="103"/>
-      <c r="H133" s="93" t="s">
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I133" s="104" t="s">
+      <c r="I133" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
-      <c r="L133" s="106"/>
-      <c r="M133" s="94"/>
+      <c r="J133" s="63"/>
+      <c r="K133" s="63"/>
+      <c r="L133" s="64"/>
+      <c r="M133" s="43"/>
     </row>
     <row r="134" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B134" s="95"/>
-      <c r="C134" s="95"/>
-      <c r="D134" s="95"/>
-      <c r="E134" s="95"/>
-      <c r="F134" s="95"/>
-      <c r="G134" s="95" t="s">
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H134" s="95" t="s">
+      <c r="H134" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I134" s="96" t="s">
+      <c r="I134" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="J134" s="97"/>
-      <c r="K134" s="97"/>
-      <c r="L134" s="98"/>
-      <c r="M134" s="94"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="66"/>
+      <c r="L134" s="67"/>
+      <c r="M134" s="43"/>
     </row>
     <row r="135" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
-      <c r="F135" s="95"/>
-      <c r="G135" s="95"/>
-      <c r="H135" s="95" t="s">
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I135" s="96" t="s">
+      <c r="I135" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J135" s="97"/>
-      <c r="K135" s="97"/>
-      <c r="L135" s="98"/>
-      <c r="M135" s="94"/>
+      <c r="J135" s="66"/>
+      <c r="K135" s="66"/>
+      <c r="L135" s="67"/>
+      <c r="M135" s="43"/>
     </row>
     <row r="136" spans="2:13" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B136" s="99" t="s">
+      <c r="B136" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C136" s="99" t="s">
+      <c r="C136" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D136" s="99" t="s">
+      <c r="D136" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E136" s="99"/>
-      <c r="F136" s="99"/>
-      <c r="G136" s="99"/>
-      <c r="H136" s="99"/>
-      <c r="I136" s="100" t="s">
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="J136" s="101"/>
-      <c r="K136" s="101"/>
-      <c r="L136" s="102"/>
-      <c r="M136" s="107"/>
+      <c r="J136" s="69"/>
+      <c r="K136" s="69"/>
+      <c r="L136" s="70"/>
+      <c r="M136" s="47"/>
     </row>
     <row r="137" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B137" s="99" t="s">
+      <c r="B137" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C137" s="99" t="s">
+      <c r="C137" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D137" s="99" t="s">
+      <c r="D137" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E137" s="99"/>
-      <c r="F137" s="99"/>
-      <c r="G137" s="99"/>
-      <c r="H137" s="99"/>
-      <c r="I137" s="100" t="s">
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="J137" s="101"/>
-      <c r="K137" s="101"/>
-      <c r="L137" s="102"/>
-      <c r="M137" s="107"/>
+      <c r="J137" s="69"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="70"/>
+      <c r="M137" s="47"/>
     </row>
     <row r="138" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B138" s="108"/>
-      <c r="C138" s="108"/>
-      <c r="D138" s="108"/>
-      <c r="E138" s="108"/>
-      <c r="F138" s="108"/>
-      <c r="G138" s="108"/>
-      <c r="H138" s="108"/>
-      <c r="I138" s="109"/>
-      <c r="J138" s="110"/>
-      <c r="K138" s="110"/>
-      <c r="L138" s="111"/>
-      <c r="M138" s="112"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="59"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="61"/>
+      <c r="M138" s="49"/>
     </row>
     <row r="139" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B139" s="108"/>
-      <c r="C139" s="108"/>
-      <c r="D139" s="108"/>
-      <c r="E139" s="108"/>
-      <c r="F139" s="108"/>
-      <c r="G139" s="108"/>
-      <c r="H139" s="108"/>
-      <c r="I139" s="109"/>
-      <c r="J139" s="110"/>
-      <c r="K139" s="110"/>
-      <c r="L139" s="111"/>
-      <c r="M139" s="113"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="59"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="61"/>
+      <c r="M139" s="50"/>
     </row>
     <row r="140" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B140" s="108"/>
-      <c r="C140" s="108"/>
-      <c r="D140" s="108"/>
-      <c r="E140" s="108"/>
-      <c r="F140" s="108"/>
-      <c r="G140" s="108"/>
-      <c r="H140" s="108"/>
-      <c r="I140" s="109"/>
-      <c r="J140" s="110"/>
-      <c r="K140" s="110"/>
-      <c r="L140" s="111"/>
-      <c r="M140" s="114"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
+      <c r="L140" s="61"/>
+      <c r="M140" s="51"/>
     </row>
     <row r="141" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B141" s="108"/>
-      <c r="C141" s="108"/>
-      <c r="D141" s="108"/>
-      <c r="E141" s="108"/>
-      <c r="F141" s="108"/>
-      <c r="G141" s="108"/>
-      <c r="H141" s="108"/>
-      <c r="I141" s="109"/>
-      <c r="J141" s="110"/>
-      <c r="K141" s="110"/>
-      <c r="L141" s="111"/>
-      <c r="M141" s="114"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="59"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="61"/>
+      <c r="M141" s="51"/>
     </row>
     <row r="142" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
-      <c r="G142" s="108"/>
-      <c r="H142" s="108"/>
-      <c r="I142" s="109"/>
-      <c r="J142" s="110"/>
-      <c r="K142" s="110"/>
-      <c r="L142" s="111"/>
-      <c r="M142" s="114"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="59"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="61"/>
+      <c r="M142" s="51"/>
     </row>
     <row r="143" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B143" s="108"/>
-      <c r="C143" s="108"/>
-      <c r="D143" s="108"/>
-      <c r="E143" s="108"/>
-      <c r="F143" s="108"/>
-      <c r="G143" s="108"/>
-      <c r="H143" s="108"/>
-      <c r="I143" s="109"/>
-      <c r="J143" s="110"/>
-      <c r="K143" s="110"/>
-      <c r="L143" s="111"/>
-      <c r="M143" s="114"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="59"/>
+      <c r="J143" s="60"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="51"/>
     </row>
     <row r="144" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B144" s="108"/>
-      <c r="C144" s="108"/>
-      <c r="D144" s="108"/>
-      <c r="E144" s="108"/>
-      <c r="F144" s="108"/>
-      <c r="G144" s="108"/>
-      <c r="H144" s="108"/>
-      <c r="I144" s="109"/>
-      <c r="J144" s="110"/>
-      <c r="K144" s="110"/>
-      <c r="L144" s="111"/>
-      <c r="M144" s="114"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="59"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="61"/>
+      <c r="M144" s="51"/>
     </row>
     <row r="145" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B145" s="108"/>
-      <c r="C145" s="108"/>
-      <c r="D145" s="108"/>
-      <c r="E145" s="108"/>
-      <c r="F145" s="108"/>
-      <c r="G145" s="108"/>
-      <c r="H145" s="108"/>
-      <c r="I145" s="109"/>
-      <c r="J145" s="110"/>
-      <c r="K145" s="110"/>
-      <c r="L145" s="111"/>
-      <c r="M145" s="114"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="59"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="61"/>
+      <c r="M145" s="51"/>
     </row>
     <row r="146" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B146" s="108"/>
-      <c r="C146" s="108"/>
-      <c r="D146" s="108"/>
-      <c r="E146" s="108"/>
-      <c r="F146" s="108"/>
-      <c r="G146" s="108"/>
-      <c r="H146" s="108"/>
-      <c r="I146" s="109"/>
-      <c r="J146" s="110"/>
-      <c r="K146" s="110"/>
-      <c r="L146" s="111"/>
-      <c r="M146" s="114"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="59"/>
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
+      <c r="L146" s="61"/>
+      <c r="M146" s="51"/>
     </row>
     <row r="147" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B147" s="108"/>
-      <c r="C147" s="108"/>
-      <c r="D147" s="108"/>
-      <c r="E147" s="108"/>
-      <c r="F147" s="108"/>
-      <c r="G147" s="108"/>
-      <c r="H147" s="108"/>
-      <c r="I147" s="109"/>
-      <c r="J147" s="110"/>
-      <c r="K147" s="110"/>
-      <c r="L147" s="111"/>
-      <c r="M147" s="114"/>
+      <c r="B147" s="48"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
+      <c r="L147" s="61"/>
+      <c r="M147" s="51"/>
     </row>
     <row r="148" spans="2:13" ht="37.15" customHeight="1" thickBot="1">
-      <c r="B148" s="108"/>
-      <c r="C148" s="108"/>
-      <c r="D148" s="108"/>
-      <c r="E148" s="108"/>
-      <c r="F148" s="108"/>
-      <c r="G148" s="108"/>
-      <c r="H148" s="108"/>
-      <c r="I148" s="109"/>
-      <c r="J148" s="110"/>
-      <c r="K148" s="110"/>
-      <c r="L148" s="111"/>
-      <c r="M148" s="114"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="59"/>
+      <c r="J148" s="60"/>
+      <c r="K148" s="60"/>
+      <c r="L148" s="61"/>
+      <c r="M148" s="51"/>
     </row>
     <row r="149" spans="2:13" ht="37.15" customHeight="1">
-      <c r="M149" s="115"/>
+      <c r="M149" s="52"/>
     </row>
     <row r="150" spans="2:13" ht="37.15" customHeight="1">
-      <c r="M150" s="115"/>
+      <c r="M150" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="I142:L142"/>
     <mergeCell ref="I143:L143"/>
     <mergeCell ref="I133:L133"/>
     <mergeCell ref="I134:L134"/>
     <mergeCell ref="I135:L135"/>
     <mergeCell ref="I136:L136"/>
     <mergeCell ref="I137:L137"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I148:L148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4631,74 +4644,74 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:11" ht="48.75" customHeight="1">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="2:11" ht="51" customHeight="1">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="13" spans="2:11" ht="51" customHeight="1">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
     </row>
     <row r="24" spans="2:11" ht="51" customHeight="1">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="33" spans="2:11" ht="51" customHeight="1">
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4710,17 +4723,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42423BA-C5ED-4422-AC47-D6D61721799A}">
   <dimension ref="A1:CW58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX18" sqref="AX18"/>
+      <selection pane="bottomLeft" activeCell="BJ13" sqref="BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="29" customWidth="1"/>
-    <col min="2" max="30" width="3.75" style="29"/>
-    <col min="31" max="31" width="3.75" style="29" customWidth="1"/>
-    <col min="32" max="16384" width="3.75" style="29"/>
+    <col min="1" max="1" width="3.75" style="28" customWidth="1"/>
+    <col min="2" max="30" width="3.75" style="28"/>
+    <col min="31" max="31" width="3.75" style="28" customWidth="1"/>
+    <col min="32" max="16384" width="3.75" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
@@ -4781,187 +4794,187 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="14"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
       <c r="V2" s="14"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="AA2" s="84" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="22"/>
+      <c r="AA2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
       <c r="AG2" s="14"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AL2" s="76" t="s">
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AL2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
       <c r="AQ2" s="14"/>
-      <c r="AS2" s="34"/>
-      <c r="AU2" s="86" t="s">
+      <c r="AS2" s="40"/>
+      <c r="AU2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="81"/>
       <c r="BC2" s="14"/>
       <c r="BE2" s="26"/>
       <c r="BF2" s="26"/>
-      <c r="BH2" s="77" t="s">
+      <c r="BH2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
       <c r="BM2" s="14"/>
       <c r="BO2" s="24"/>
       <c r="BP2" s="24"/>
-      <c r="BR2" s="84" t="s">
+      <c r="BR2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="84"/>
-      <c r="BV2" s="84"/>
-      <c r="BW2" s="84"/>
+      <c r="BS2" s="79"/>
+      <c r="BT2" s="79"/>
+      <c r="BU2" s="79"/>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
       <c r="BY2" s="14"/>
-      <c r="CD2" s="85" t="s">
+      <c r="CD2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="85"/>
-      <c r="CF2" s="85"/>
-      <c r="CG2" s="85"/>
-      <c r="CH2" s="85"/>
-      <c r="CI2" s="85"/>
-      <c r="CJ2" s="85"/>
+      <c r="CE2" s="80"/>
+      <c r="CF2" s="80"/>
+      <c r="CG2" s="80"/>
+      <c r="CH2" s="80"/>
+      <c r="CI2" s="80"/>
+      <c r="CJ2" s="80"/>
       <c r="CK2" s="14"/>
-      <c r="CP2" s="77" t="s">
+      <c r="CP2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="CQ2" s="77"/>
-      <c r="CR2" s="77"/>
-      <c r="CS2" s="77"/>
-      <c r="CT2" s="77"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
     </row>
     <row r="3" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="15"/>
       <c r="M3" s="11"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
       <c r="V3" s="15"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
       <c r="AG3" s="15"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
       <c r="AQ3" s="15"/>
-      <c r="AS3" s="30"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
+      <c r="AS3" s="29"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
       <c r="BC3" s="15"/>
       <c r="BD3" s="11"/>
       <c r="BE3" s="27"/>
       <c r="BF3" s="27"/>
       <c r="BG3" s="11"/>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="77"/>
-      <c r="BK3" s="77"/>
-      <c r="BL3" s="77"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
       <c r="BM3" s="15"/>
       <c r="BN3" s="10"/>
       <c r="BO3" s="25"/>
       <c r="BP3" s="25"/>
-      <c r="BR3" s="84"/>
-      <c r="BS3" s="84"/>
-      <c r="BT3" s="84"/>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="84"/>
-      <c r="BW3" s="84"/>
+      <c r="BR3" s="79"/>
+      <c r="BS3" s="79"/>
+      <c r="BT3" s="79"/>
+      <c r="BU3" s="79"/>
+      <c r="BV3" s="79"/>
+      <c r="BW3" s="79"/>
       <c r="BY3" s="14"/>
       <c r="BZ3" s="11"/>
       <c r="CA3" s="11"/>
       <c r="CB3" s="11"/>
       <c r="CC3" s="11"/>
-      <c r="CD3" s="85"/>
-      <c r="CE3" s="85"/>
-      <c r="CF3" s="85"/>
-      <c r="CG3" s="85"/>
-      <c r="CH3" s="85"/>
-      <c r="CI3" s="85"/>
-      <c r="CJ3" s="85"/>
+      <c r="CD3" s="80"/>
+      <c r="CE3" s="80"/>
+      <c r="CF3" s="80"/>
+      <c r="CG3" s="80"/>
+      <c r="CH3" s="80"/>
+      <c r="CI3" s="80"/>
+      <c r="CJ3" s="80"/>
       <c r="CK3" s="14"/>
       <c r="CL3" s="11"/>
       <c r="CM3" s="11"/>
-      <c r="CP3" s="77"/>
-      <c r="CQ3" s="77"/>
-      <c r="CR3" s="77"/>
-      <c r="CS3" s="77"/>
-      <c r="CT3" s="77"/>
+      <c r="CP3" s="72"/>
+      <c r="CQ3" s="72"/>
+      <c r="CR3" s="72"/>
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
     </row>
     <row r="4" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="11"/>
@@ -4982,6 +4995,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="15"/>
+      <c r="AG4" s="14"/>
       <c r="AU4" s="13"/>
       <c r="AV4" s="13"/>
       <c r="AW4" s="13"/>
@@ -5004,28 +5018,38 @@
     </row>
     <row r="5" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="L5" s="15"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="87" t="s">
+      <c r="Q5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="89"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
       <c r="V5" s="15"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="AA5" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="84"/>
+      <c r="AG5" s="14"/>
       <c r="AU5" s="13"/>
       <c r="AV5" s="13"/>
       <c r="AW5" s="13"/>
@@ -5048,24 +5072,32 @@
     </row>
     <row r="6" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="L6" s="15"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="92"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="87"/>
       <c r="V6" s="15"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="87"/>
+      <c r="AG6" s="14"/>
       <c r="AU6" s="13"/>
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
@@ -5108,6 +5140,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="15"/>
+      <c r="AG7" s="14"/>
       <c r="AU7" s="13"/>
       <c r="AV7" s="13"/>
       <c r="AW7" s="13"/>
@@ -5263,36 +5296,36 @@
     <row r="10" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="60"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="103"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
@@ -5340,34 +5373,34 @@
     <row r="11" spans="1:101" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="63"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="106"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
@@ -5415,44 +5448,44 @@
     <row r="12" spans="1:101" s="12" customFormat="1" ht="47.25" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="66" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69" t="s">
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="66" t="s">
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="69" t="s">
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="71"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="114"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
@@ -5491,364 +5524,364 @@
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
     </row>
-    <row r="13" spans="1:101" s="31" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="29"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="29"/>
-      <c r="BS13" s="29"/>
-      <c r="BT13" s="29"/>
-      <c r="BU13" s="29"/>
-      <c r="BV13" s="29"/>
-      <c r="BW13" s="29"/>
-      <c r="BY13" s="29"/>
-      <c r="BZ13" s="29"/>
-      <c r="CA13" s="29"/>
-      <c r="CB13" s="29"/>
-      <c r="CC13" s="29"/>
-      <c r="CD13" s="29"/>
-      <c r="CE13" s="29"/>
-      <c r="CQ13" s="29"/>
-      <c r="CR13" s="29"/>
-      <c r="CS13" s="29"/>
-      <c r="CT13" s="29"/>
-      <c r="CU13" s="29"/>
-      <c r="CV13" s="29"/>
-      <c r="CW13" s="29"/>
-    </row>
-    <row r="14" spans="1:101" s="31" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="29"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="29"/>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="29"/>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="29"/>
-      <c r="BF14" s="29"/>
-      <c r="BG14" s="29"/>
-      <c r="BH14" s="29"/>
-      <c r="BS14" s="29"/>
-      <c r="BT14" s="29"/>
-      <c r="BU14" s="29"/>
-      <c r="BV14" s="29"/>
-      <c r="BW14" s="29"/>
-      <c r="BY14" s="29"/>
-      <c r="BZ14" s="29"/>
-      <c r="CA14" s="29"/>
-      <c r="CB14" s="29"/>
-      <c r="CC14" s="29"/>
-      <c r="CD14" s="29"/>
-      <c r="CE14" s="29"/>
-      <c r="CQ14" s="29"/>
-      <c r="CR14" s="29"/>
-      <c r="CS14" s="29"/>
-      <c r="CT14" s="29"/>
-      <c r="CU14" s="29"/>
-      <c r="CV14" s="29"/>
-      <c r="CW14" s="29"/>
-    </row>
-    <row r="15" spans="1:101" s="31" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AR15" s="29"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="29"/>
-      <c r="AW15" s="29"/>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="29"/>
-      <c r="BA15" s="29"/>
-      <c r="BB15" s="29"/>
-      <c r="BC15" s="29"/>
-      <c r="BD15" s="29"/>
-      <c r="BE15" s="29"/>
-      <c r="BF15" s="29"/>
-      <c r="BG15" s="29"/>
-      <c r="BH15" s="29"/>
-      <c r="BS15" s="29"/>
-      <c r="BT15" s="29"/>
-      <c r="BU15" s="29"/>
-      <c r="BV15" s="29"/>
-      <c r="BW15" s="29"/>
-      <c r="BY15" s="29"/>
-      <c r="BZ15" s="29"/>
-      <c r="CA15" s="29"/>
-      <c r="CB15" s="29"/>
-      <c r="CC15" s="29"/>
-      <c r="CD15" s="29"/>
-      <c r="CE15" s="29"/>
-      <c r="CQ15" s="29"/>
-      <c r="CR15" s="29"/>
-      <c r="CS15" s="29"/>
-      <c r="CT15" s="29"/>
-      <c r="CU15" s="29"/>
-      <c r="CV15" s="29"/>
-      <c r="CW15" s="29"/>
+    <row r="13" spans="1:101" s="30" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BS13" s="28"/>
+      <c r="BT13" s="28"/>
+      <c r="BU13" s="28"/>
+      <c r="BV13" s="28"/>
+      <c r="BW13" s="28"/>
+      <c r="BY13" s="28"/>
+      <c r="BZ13" s="28"/>
+      <c r="CA13" s="28"/>
+      <c r="CB13" s="28"/>
+      <c r="CC13" s="28"/>
+      <c r="CD13" s="28"/>
+      <c r="CE13" s="28"/>
+      <c r="CQ13" s="28"/>
+      <c r="CR13" s="28"/>
+      <c r="CS13" s="28"/>
+      <c r="CT13" s="28"/>
+      <c r="CU13" s="28"/>
+      <c r="CV13" s="28"/>
+      <c r="CW13" s="28"/>
+    </row>
+    <row r="14" spans="1:101" s="30" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BS14" s="28"/>
+      <c r="BT14" s="28"/>
+      <c r="BU14" s="28"/>
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="28"/>
+      <c r="BY14" s="28"/>
+      <c r="BZ14" s="28"/>
+      <c r="CA14" s="28"/>
+      <c r="CB14" s="28"/>
+      <c r="CC14" s="28"/>
+      <c r="CD14" s="28"/>
+      <c r="CE14" s="28"/>
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="28"/>
+      <c r="CS14" s="28"/>
+      <c r="CT14" s="28"/>
+      <c r="CU14" s="28"/>
+      <c r="CV14" s="28"/>
+      <c r="CW14" s="28"/>
+    </row>
+    <row r="15" spans="1:101" s="30" customFormat="1" ht="24" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BS15" s="28"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="28"/>
+      <c r="BV15" s="28"/>
+      <c r="BW15" s="28"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="28"/>
+      <c r="CA15" s="28"/>
+      <c r="CB15" s="28"/>
+      <c r="CC15" s="28"/>
+      <c r="CD15" s="28"/>
+      <c r="CE15" s="28"/>
+      <c r="CQ15" s="28"/>
+      <c r="CR15" s="28"/>
+      <c r="CS15" s="28"/>
+      <c r="CT15" s="28"/>
+      <c r="CU15" s="28"/>
+      <c r="CV15" s="28"/>
+      <c r="CW15" s="28"/>
     </row>
     <row r="16" spans="1:101" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
     </row>
     <row r="17" spans="3:49" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
     </row>
     <row r="18" spans="3:49" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
     </row>
     <row r="20" spans="3:49" ht="24" customHeight="1">
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="8"/>
       <c r="AS20" s="8"/>
@@ -5858,46 +5891,46 @@
       <c r="AW20" s="8"/>
     </row>
     <row r="21" spans="3:49" ht="24" customHeight="1">
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="31"/>
       <c r="AQ21" s="8"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="8"/>
@@ -5907,46 +5940,46 @@
       <c r="AW21" s="8"/>
     </row>
     <row r="22" spans="3:49" ht="24" customHeight="1">
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="31"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8"/>
@@ -5956,46 +5989,46 @@
       <c r="AW22" s="8"/>
     </row>
     <row r="23" spans="3:49" ht="24" customHeight="1">
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="31"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
       <c r="AS23" s="8"/>
@@ -6005,46 +6038,46 @@
       <c r="AW23" s="8"/>
     </row>
     <row r="24" spans="3:49" ht="24" customHeight="1">
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="31"/>
       <c r="AQ24" s="8"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
@@ -6054,46 +6087,46 @@
       <c r="AW24" s="8"/>
     </row>
     <row r="25" spans="3:49" ht="24" customHeight="1">
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="31"/>
       <c r="AQ25" s="8"/>
       <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
@@ -6103,46 +6136,46 @@
       <c r="AW25" s="8"/>
     </row>
     <row r="26" spans="3:49" ht="24" customHeight="1">
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="31"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8"/>
@@ -6152,46 +6185,46 @@
       <c r="AW26" s="8"/>
     </row>
     <row r="27" spans="3:49" ht="24" customHeight="1">
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="31"/>
       <c r="AQ27" s="8"/>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
@@ -6201,46 +6234,46 @@
       <c r="AW27" s="8"/>
     </row>
     <row r="28" spans="3:49" ht="24" customHeight="1">
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="31"/>
       <c r="AQ28" s="8"/>
       <c r="AR28" s="8"/>
       <c r="AS28" s="8"/>
@@ -6250,46 +6283,46 @@
       <c r="AW28" s="8"/>
     </row>
     <row r="29" spans="3:49" ht="24" customHeight="1">
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="31"/>
       <c r="AQ29" s="8"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
@@ -6299,46 +6332,46 @@
       <c r="AW29" s="8"/>
     </row>
     <row r="30" spans="3:49" ht="24" customHeight="1">
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="32"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="31"/>
       <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
@@ -6348,46 +6381,46 @@
       <c r="AW30" s="8"/>
     </row>
     <row r="31" spans="3:49" ht="24" customHeight="1">
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="31"/>
       <c r="AQ31" s="8"/>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
@@ -6397,46 +6430,46 @@
       <c r="AW31" s="8"/>
     </row>
     <row r="32" spans="3:49" ht="24" customHeight="1">
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="31"/>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
@@ -6446,46 +6479,46 @@
       <c r="AW32" s="8"/>
     </row>
     <row r="33" spans="3:49" ht="24" customHeight="1">
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="31"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8"/>
@@ -6495,46 +6528,46 @@
       <c r="AW33" s="8"/>
     </row>
     <row r="34" spans="3:49" ht="24" customHeight="1">
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="32"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="31"/>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
@@ -6544,46 +6577,46 @@
       <c r="AW34" s="8"/>
     </row>
     <row r="35" spans="3:49" ht="24" customHeight="1">
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="31"/>
       <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
@@ -6593,46 +6626,46 @@
       <c r="AW35" s="8"/>
     </row>
     <row r="36" spans="3:49" ht="24" customHeight="1">
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="32"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="31"/>
       <c r="AQ36" s="8"/>
       <c r="AR36" s="8"/>
       <c r="AS36" s="8"/>
@@ -6642,46 +6675,46 @@
       <c r="AW36" s="8"/>
     </row>
     <row r="37" spans="3:49" ht="24" customHeight="1">
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="32"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="31"/>
       <c r="AQ37" s="8"/>
       <c r="AR37" s="8"/>
       <c r="AS37" s="8"/>
@@ -6691,46 +6724,46 @@
       <c r="AW37" s="8"/>
     </row>
     <row r="38" spans="3:49" ht="24" customHeight="1">
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="32"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="31"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="8"/>
       <c r="AS38" s="8"/>
@@ -6740,46 +6773,46 @@
       <c r="AW38" s="8"/>
     </row>
     <row r="39" spans="3:49" ht="24" customHeight="1">
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="32"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
       <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8"/>
@@ -6789,302 +6822,290 @@
       <c r="AW39" s="8"/>
     </row>
     <row r="44" spans="3:49" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
-      <c r="AA44" s="75"/>
-      <c r="AB44" s="75"/>
-      <c r="AC44" s="75"/>
-      <c r="AD44" s="75"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="118"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="118"/>
+      <c r="U44" s="118"/>
+      <c r="V44" s="118"/>
+      <c r="W44" s="118"/>
+      <c r="X44" s="118"/>
+      <c r="Y44" s="118"/>
+      <c r="Z44" s="118"/>
+      <c r="AA44" s="118"/>
+      <c r="AB44" s="118"/>
+      <c r="AC44" s="118"/>
+      <c r="AD44" s="118"/>
     </row>
     <row r="45" spans="3:49" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="75"/>
-      <c r="AD45" s="75"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="118"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="118"/>
+      <c r="S45" s="118"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="118"/>
+      <c r="V45" s="118"/>
+      <c r="W45" s="118"/>
+      <c r="X45" s="118"/>
+      <c r="Y45" s="118"/>
+      <c r="Z45" s="118"/>
+      <c r="AA45" s="118"/>
+      <c r="AB45" s="118"/>
+      <c r="AC45" s="118"/>
+      <c r="AD45" s="118"/>
     </row>
     <row r="46" spans="3:49" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="75"/>
-      <c r="AD46" s="75"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="118"/>
+      <c r="Y46" s="118"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="118"/>
+      <c r="AB46" s="118"/>
+      <c r="AC46" s="118"/>
+      <c r="AD46" s="118"/>
     </row>
     <row r="49" spans="3:30" ht="24" customHeight="1">
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="54"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
+      <c r="W49" s="96"/>
+      <c r="X49" s="96"/>
+      <c r="Y49" s="96"/>
+      <c r="Z49" s="96"/>
+      <c r="AA49" s="96"/>
+      <c r="AB49" s="96"/>
+      <c r="AC49" s="96"/>
+      <c r="AD49" s="97"/>
     </row>
     <row r="50" spans="3:30" ht="24" customHeight="1">
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="57"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="99"/>
+      <c r="X50" s="99"/>
+      <c r="Y50" s="99"/>
+      <c r="Z50" s="99"/>
+      <c r="AA50" s="99"/>
+      <c r="AB50" s="99"/>
+      <c r="AC50" s="99"/>
+      <c r="AD50" s="100"/>
     </row>
     <row r="52" spans="3:30" ht="24" customHeight="1">
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="O52" s="64">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="O52" s="107">
         <v>1</v>
       </c>
-      <c r="P52" s="64"/>
-      <c r="R52" s="65" t="s">
+      <c r="P52" s="107"/>
+      <c r="R52" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="65"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="108"/>
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
+      <c r="Z52" s="108"/>
+      <c r="AA52" s="108"/>
+      <c r="AB52" s="108"/>
+      <c r="AC52" s="108"/>
     </row>
     <row r="53" spans="3:30" ht="24" customHeight="1">
-      <c r="C53" s="32"/>
-      <c r="D53" s="35">
+      <c r="C53" s="31"/>
+      <c r="D53" s="33">
         <v>1</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="32"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="65"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="31"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="107"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
+      <c r="V53" s="108"/>
+      <c r="W53" s="108"/>
+      <c r="X53" s="108"/>
+      <c r="Y53" s="108"/>
+      <c r="Z53" s="108"/>
+      <c r="AA53" s="108"/>
+      <c r="AB53" s="108"/>
+      <c r="AC53" s="108"/>
     </row>
     <row r="54" spans="3:30" ht="24" customHeight="1">
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="32"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="3:30" ht="24" customHeight="1">
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="32"/>
-      <c r="O55" s="51">
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="31"/>
+      <c r="O55" s="94">
         <v>1</v>
       </c>
-      <c r="P55" s="51"/>
-      <c r="R55" s="45" t="s">
+      <c r="P55" s="94"/>
+      <c r="R55" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="46"/>
-      <c r="AC55" s="47"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="89"/>
+      <c r="AB55" s="89"/>
+      <c r="AC55" s="90"/>
     </row>
     <row r="56" spans="3:30" ht="24" customHeight="1">
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="32"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="50"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="31"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="92"/>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="92"/>
+      <c r="Y56" s="92"/>
+      <c r="Z56" s="92"/>
+      <c r="AA56" s="92"/>
+      <c r="AB56" s="92"/>
+      <c r="AC56" s="93"/>
     </row>
     <row r="57" spans="3:30" ht="24" customHeight="1">
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="32"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="31"/>
     </row>
     <row r="58" spans="3:30" ht="24" customHeight="1">
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AL2:AP3"/>
-    <mergeCell ref="CP2:CT3"/>
-    <mergeCell ref="C10:N11"/>
-    <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="BR2:BW3"/>
-    <mergeCell ref="CD2:CJ3"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="Q2:U3"/>
-    <mergeCell ref="AA2:AF3"/>
-    <mergeCell ref="AU2:BB3"/>
-    <mergeCell ref="E5:I6"/>
-    <mergeCell ref="Q5:U6"/>
+  <mergeCells count="26">
     <mergeCell ref="R55:AC56"/>
     <mergeCell ref="O55:P56"/>
     <mergeCell ref="C49:AD50"/>
@@ -7098,6 +7119,19 @@
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C16:AD18"/>
     <mergeCell ref="C44:AD46"/>
+    <mergeCell ref="AL2:AP3"/>
+    <mergeCell ref="CP2:CT3"/>
+    <mergeCell ref="C10:N11"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BR2:BW3"/>
+    <mergeCell ref="CD2:CJ3"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="Q2:U3"/>
+    <mergeCell ref="AA2:AF3"/>
+    <mergeCell ref="AU2:BB3"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="Q5:U6"/>
+    <mergeCell ref="AA5:AE6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
